--- a/cw3/results/graphs.xlsx
+++ b/cw3/results/graphs.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="28695" windowHeight="14535" tabRatio="822" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28695" windowHeight="14535" tabRatio="822" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Linear no coev data" sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="36">
   <si>
     <t>Gen</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>sd-e</t>
+  </si>
+  <si>
+    <t>With coevolution</t>
+  </si>
+  <si>
+    <t>Without coevolution</t>
   </si>
 </sst>
 </file>
@@ -2770,11 +2776,19 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Without coevolution</c:v>
+            <c:v>With coevolution</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
-              <a:prstDash val="dash"/>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD">
+                  <a:shade val="76000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -2897,9 +2911,11 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
+                <a:srgbClr val="4F81BD">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3022,9 +3038,11 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
+                <a:srgbClr val="4F81BD">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3147,9 +3165,11 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
+                <a:srgbClr val="4F81BD">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3259,14 +3279,16 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Without coevolution</c:v>
+            <c:v>With coevolution</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
+                <a:srgbClr val="4F81BD">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
               </a:solidFill>
-              <a:prstDash val="dash"/>
+              <a:prstDash val="solid"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3381,8 +3403,11 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="C0504D"/>
+                <a:srgbClr val="C0504D">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3497,8 +3522,11 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="C0504D"/>
+                <a:srgbClr val="C0504D">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3613,8 +3641,11 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="C0504D"/>
+                <a:srgbClr val="C0504D">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3729,8 +3760,11 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="C0504D">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3840,13 +3874,16 @@
           <c:idx val="9"/>
           <c:order val="9"/>
           <c:tx>
-            <c:v>With coevolution</c:v>
+            <c:v>Without coevolution</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="C0504D"/>
+                <a:srgbClr val="C0504D">
+                  <a:alpha val="25000"/>
+                </a:srgbClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3947,6 +3984,254 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3538</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Average with coevolution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="4F81BD"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linear coev data'!$DG$2:$DG$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>43.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>385.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>663.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1102.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1414.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1532.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1677.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2136.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2462</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2877.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3105.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3097.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3375.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3546.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3573.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3902.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3945</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3793.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4131.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3918.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4173.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Average without coevolution</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linear coev data'!$DH$2:$DH$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>492.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>711.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>939.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1086.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1434.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1699.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1859.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2037.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2410.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2543.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2525.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2673.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2749</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2883.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3038.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3125.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2730.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2938.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3031.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3312.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3476.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3991,6 +4276,7 @@
         <c:axId val="106103552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -4059,8 +4345,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10398169036612002"/>
           <c:y val="4.1348668899552368E-2"/>
-          <c:w val="0.17783798114306978"/>
-          <c:h val="7.2939486425699016E-2"/>
+          <c:w val="0.27606406526779753"/>
+          <c:h val="0.21881845927709703"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4786,7 +5072,8 @@
     <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4794,10 +5081,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4808,7 +5096,8 @@
     <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4816,10 +5105,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4827,10 +5117,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="169" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4838,10 +5129,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="169" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -5374,7 +5666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HK31"/>
   <sheetViews>
-    <sheetView topLeftCell="BJ1" workbookViewId="0">
+    <sheetView topLeftCell="BK1" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -25145,15 +25437,16 @@
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DE31"/>
+  <dimension ref="A1:DH31"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BQ1" activeCellId="1" sqref="BT1:BT1048576 BQ1:BQ1048576"/>
+    <sheetView topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="DI30" sqref="DI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25214,36 +25507,37 @@
     <col min="70" max="71" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="6" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="5" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="4" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="7" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="6" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="5" bestFit="1" customWidth="1"/>
-    <col min="99" max="101" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="5" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="4" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="5" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="7" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="5" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="7" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="8" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="99" max="101" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109">
+    <row r="1" spans="1:112">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25559,8 +25853,14 @@
       <c r="DE1" t="s">
         <v>20</v>
       </c>
+      <c r="DG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:109">
+    <row r="2" spans="1:112">
       <c r="A2">
         <v>0</v>
       </c>
@@ -25876,8 +26176,16 @@
       <c r="DE2">
         <v>576</v>
       </c>
+      <c r="DG2">
+        <f>(CM2+BQ2+AU2+Y2+C2)/5</f>
+        <v>43.6</v>
+      </c>
+      <c r="DH2">
+        <f>('Linear no coev data'!C2+'Linear no coev data'!Y2+'Linear no coev data'!AU2+'Linear no coev data'!BQ2+'Linear no coev data'!CM2)/5</f>
+        <v>37.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:109">
+    <row r="3" spans="1:112">
       <c r="A3">
         <v>1</v>
       </c>
@@ -26193,8 +26501,16 @@
       <c r="DE3">
         <v>562</v>
       </c>
+      <c r="DG3">
+        <f t="shared" ref="DG3:DG31" si="0">(CM3+BQ3+AU3+Y3+C3)/5</f>
+        <v>138.6</v>
+      </c>
+      <c r="DH3">
+        <f>('Linear no coev data'!C3+'Linear no coev data'!Y3+'Linear no coev data'!AU3+'Linear no coev data'!BQ3+'Linear no coev data'!CM3)/5</f>
+        <v>121</v>
+      </c>
     </row>
-    <row r="4" spans="1:109">
+    <row r="4" spans="1:112">
       <c r="A4">
         <v>2</v>
       </c>
@@ -26510,8 +26826,16 @@
       <c r="DE4">
         <v>553</v>
       </c>
+      <c r="DG4">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="DH4">
+        <f>('Linear no coev data'!C4+'Linear no coev data'!Y4+'Linear no coev data'!AU4+'Linear no coev data'!BQ4+'Linear no coev data'!CM4)/5</f>
+        <v>172.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:109">
+    <row r="5" spans="1:112">
       <c r="A5">
         <v>3</v>
       </c>
@@ -26827,8 +27151,16 @@
       <c r="DE5">
         <v>542</v>
       </c>
+      <c r="DG5">
+        <f t="shared" si="0"/>
+        <v>278.39999999999998</v>
+      </c>
+      <c r="DH5">
+        <f>('Linear no coev data'!C5+'Linear no coev data'!Y5+'Linear no coev data'!AU5+'Linear no coev data'!BQ5+'Linear no coev data'!CM5)/5</f>
+        <v>235.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:109">
+    <row r="6" spans="1:112">
       <c r="A6">
         <v>4</v>
       </c>
@@ -27144,8 +27476,16 @@
       <c r="DE6">
         <v>525</v>
       </c>
+      <c r="DG6">
+        <f t="shared" si="0"/>
+        <v>333.8</v>
+      </c>
+      <c r="DH6">
+        <f>('Linear no coev data'!C6+'Linear no coev data'!Y6+'Linear no coev data'!AU6+'Linear no coev data'!BQ6+'Linear no coev data'!CM6)/5</f>
+        <v>306.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:109">
+    <row r="7" spans="1:112">
       <c r="A7">
         <v>5</v>
       </c>
@@ -27461,8 +27801,16 @@
       <c r="DE7">
         <v>485</v>
       </c>
+      <c r="DG7">
+        <f t="shared" si="0"/>
+        <v>385.8</v>
+      </c>
+      <c r="DH7">
+        <f>('Linear no coev data'!C7+'Linear no coev data'!Y7+'Linear no coev data'!AU7+'Linear no coev data'!BQ7+'Linear no coev data'!CM7)/5</f>
+        <v>384</v>
+      </c>
     </row>
-    <row r="8" spans="1:109">
+    <row r="8" spans="1:112">
       <c r="A8">
         <v>6</v>
       </c>
@@ -27778,8 +28126,16 @@
       <c r="DE8">
         <v>461</v>
       </c>
+      <c r="DG8">
+        <f t="shared" si="0"/>
+        <v>532</v>
+      </c>
+      <c r="DH8">
+        <f>('Linear no coev data'!C8+'Linear no coev data'!Y8+'Linear no coev data'!AU8+'Linear no coev data'!BQ8+'Linear no coev data'!CM8)/5</f>
+        <v>492.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:109">
+    <row r="9" spans="1:112">
       <c r="A9">
         <v>7</v>
       </c>
@@ -28095,8 +28451,16 @@
       <c r="DE9">
         <v>471</v>
       </c>
+      <c r="DG9">
+        <f t="shared" si="0"/>
+        <v>663.8</v>
+      </c>
+      <c r="DH9">
+        <f>('Linear no coev data'!C9+'Linear no coev data'!Y9+'Linear no coev data'!AU9+'Linear no coev data'!BQ9+'Linear no coev data'!CM9)/5</f>
+        <v>711.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:109">
+    <row r="10" spans="1:112">
       <c r="A10">
         <v>8</v>
       </c>
@@ -28412,8 +28776,16 @@
       <c r="DE10">
         <v>452</v>
       </c>
+      <c r="DG10">
+        <f t="shared" si="0"/>
+        <v>822</v>
+      </c>
+      <c r="DH10">
+        <f>('Linear no coev data'!C10+'Linear no coev data'!Y10+'Linear no coev data'!AU10+'Linear no coev data'!BQ10+'Linear no coev data'!CM10)/5</f>
+        <v>939.2</v>
+      </c>
     </row>
-    <row r="11" spans="1:109">
+    <row r="11" spans="1:112">
       <c r="A11">
         <v>9</v>
       </c>
@@ -28729,8 +29101,16 @@
       <c r="DE11">
         <v>463</v>
       </c>
+      <c r="DG11">
+        <f t="shared" si="0"/>
+        <v>1102.4000000000001</v>
+      </c>
+      <c r="DH11">
+        <f>('Linear no coev data'!C11+'Linear no coev data'!Y11+'Linear no coev data'!AU11+'Linear no coev data'!BQ11+'Linear no coev data'!CM11)/5</f>
+        <v>1086.2</v>
+      </c>
     </row>
-    <row r="12" spans="1:109">
+    <row r="12" spans="1:112">
       <c r="A12">
         <v>10</v>
       </c>
@@ -29046,8 +29426,16 @@
       <c r="DE12">
         <v>448</v>
       </c>
+      <c r="DG12">
+        <f t="shared" si="0"/>
+        <v>1414.8</v>
+      </c>
+      <c r="DH12">
+        <f>('Linear no coev data'!C12+'Linear no coev data'!Y12+'Linear no coev data'!AU12+'Linear no coev data'!BQ12+'Linear no coev data'!CM12)/5</f>
+        <v>1434.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:109">
+    <row r="13" spans="1:112">
       <c r="A13">
         <v>11</v>
       </c>
@@ -29363,8 +29751,16 @@
       <c r="DE13">
         <v>433</v>
       </c>
+      <c r="DG13">
+        <f t="shared" si="0"/>
+        <v>1532.8</v>
+      </c>
+      <c r="DH13">
+        <f>('Linear no coev data'!C13+'Linear no coev data'!Y13+'Linear no coev data'!AU13+'Linear no coev data'!BQ13+'Linear no coev data'!CM13)/5</f>
+        <v>1534</v>
+      </c>
     </row>
-    <row r="14" spans="1:109">
+    <row r="14" spans="1:112">
       <c r="A14">
         <v>12</v>
       </c>
@@ -29680,8 +30076,16 @@
       <c r="DE14">
         <v>405</v>
       </c>
+      <c r="DG14">
+        <f t="shared" si="0"/>
+        <v>1677.8</v>
+      </c>
+      <c r="DH14">
+        <f>('Linear no coev data'!C14+'Linear no coev data'!Y14+'Linear no coev data'!AU14+'Linear no coev data'!BQ14+'Linear no coev data'!CM14)/5</f>
+        <v>1699.2</v>
+      </c>
     </row>
-    <row r="15" spans="1:109">
+    <row r="15" spans="1:112">
       <c r="A15">
         <v>13</v>
       </c>
@@ -29997,8 +30401,16 @@
       <c r="DE15">
         <v>392</v>
       </c>
+      <c r="DG15">
+        <f t="shared" si="0"/>
+        <v>2079</v>
+      </c>
+      <c r="DH15">
+        <f>('Linear no coev data'!C15+'Linear no coev data'!Y15+'Linear no coev data'!AU15+'Linear no coev data'!BQ15+'Linear no coev data'!CM15)/5</f>
+        <v>1859.8</v>
+      </c>
     </row>
-    <row r="16" spans="1:109">
+    <row r="16" spans="1:112">
       <c r="A16">
         <v>14</v>
       </c>
@@ -30314,8 +30726,16 @@
       <c r="DE16">
         <v>368</v>
       </c>
+      <c r="DG16">
+        <f t="shared" si="0"/>
+        <v>2097</v>
+      </c>
+      <c r="DH16">
+        <f>('Linear no coev data'!C16+'Linear no coev data'!Y16+'Linear no coev data'!AU16+'Linear no coev data'!BQ16+'Linear no coev data'!CM16)/5</f>
+        <v>2037.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:109">
+    <row r="17" spans="1:112">
       <c r="A17">
         <v>15</v>
       </c>
@@ -30631,8 +31051,16 @@
       <c r="DE17">
         <v>340</v>
       </c>
+      <c r="DG17">
+        <f t="shared" si="0"/>
+        <v>2136.4</v>
+      </c>
+      <c r="DH17">
+        <f>('Linear no coev data'!C17+'Linear no coev data'!Y17+'Linear no coev data'!AU17+'Linear no coev data'!BQ17+'Linear no coev data'!CM17)/5</f>
+        <v>2074</v>
+      </c>
     </row>
-    <row r="18" spans="1:109">
+    <row r="18" spans="1:112">
       <c r="A18">
         <v>16</v>
       </c>
@@ -30948,8 +31376,16 @@
       <c r="DE18">
         <v>341</v>
       </c>
+      <c r="DG18">
+        <f t="shared" si="0"/>
+        <v>2462</v>
+      </c>
+      <c r="DH18">
+        <f>('Linear no coev data'!C18+'Linear no coev data'!Y18+'Linear no coev data'!AU18+'Linear no coev data'!BQ18+'Linear no coev data'!CM18)/5</f>
+        <v>2410.6</v>
+      </c>
     </row>
-    <row r="19" spans="1:109">
+    <row r="19" spans="1:112">
       <c r="A19">
         <v>17</v>
       </c>
@@ -31265,8 +31701,16 @@
       <c r="DE19">
         <v>317</v>
       </c>
+      <c r="DG19">
+        <f t="shared" si="0"/>
+        <v>2703</v>
+      </c>
+      <c r="DH19">
+        <f>('Linear no coev data'!C19+'Linear no coev data'!Y19+'Linear no coev data'!AU19+'Linear no coev data'!BQ19+'Linear no coev data'!CM19)/5</f>
+        <v>2543.6</v>
+      </c>
     </row>
-    <row r="20" spans="1:109">
+    <row r="20" spans="1:112">
       <c r="A20">
         <v>18</v>
       </c>
@@ -31582,8 +32026,16 @@
       <c r="DE20">
         <v>305</v>
       </c>
+      <c r="DG20">
+        <f t="shared" si="0"/>
+        <v>2877.8</v>
+      </c>
+      <c r="DH20">
+        <f>('Linear no coev data'!C20+'Linear no coev data'!Y20+'Linear no coev data'!AU20+'Linear no coev data'!BQ20+'Linear no coev data'!CM20)/5</f>
+        <v>2525.6</v>
+      </c>
     </row>
-    <row r="21" spans="1:109">
+    <row r="21" spans="1:112">
       <c r="A21">
         <v>19</v>
       </c>
@@ -31899,8 +32351,16 @@
       <c r="DE21">
         <v>318</v>
       </c>
+      <c r="DG21">
+        <f t="shared" si="0"/>
+        <v>3105.6</v>
+      </c>
+      <c r="DH21">
+        <f>('Linear no coev data'!C21+'Linear no coev data'!Y21+'Linear no coev data'!AU21+'Linear no coev data'!BQ21+'Linear no coev data'!CM21)/5</f>
+        <v>2673.2</v>
+      </c>
     </row>
-    <row r="22" spans="1:109">
+    <row r="22" spans="1:112">
       <c r="A22">
         <v>20</v>
       </c>
@@ -32216,8 +32676,16 @@
       <c r="DE22">
         <v>287</v>
       </c>
+      <c r="DG22">
+        <f t="shared" si="0"/>
+        <v>3097.6</v>
+      </c>
+      <c r="DH22">
+        <f>('Linear no coev data'!C22+'Linear no coev data'!Y22+'Linear no coev data'!AU22+'Linear no coev data'!BQ22+'Linear no coev data'!CM22)/5</f>
+        <v>2749</v>
+      </c>
     </row>
-    <row r="23" spans="1:109">
+    <row r="23" spans="1:112">
       <c r="A23">
         <v>21</v>
       </c>
@@ -32533,8 +33001,16 @@
       <c r="DE23">
         <v>260</v>
       </c>
+      <c r="DG23">
+        <f t="shared" si="0"/>
+        <v>3375.2</v>
+      </c>
+      <c r="DH23">
+        <f>('Linear no coev data'!C23+'Linear no coev data'!Y23+'Linear no coev data'!AU23+'Linear no coev data'!BQ23+'Linear no coev data'!CM23)/5</f>
+        <v>3007</v>
+      </c>
     </row>
-    <row r="24" spans="1:109">
+    <row r="24" spans="1:112">
       <c r="A24">
         <v>22</v>
       </c>
@@ -32850,8 +33326,16 @@
       <c r="DE24">
         <v>252</v>
       </c>
+      <c r="DG24">
+        <f t="shared" si="0"/>
+        <v>3546.2</v>
+      </c>
+      <c r="DH24">
+        <f>('Linear no coev data'!C24+'Linear no coev data'!Y24+'Linear no coev data'!AU24+'Linear no coev data'!BQ24+'Linear no coev data'!CM24)/5</f>
+        <v>2883.2</v>
+      </c>
     </row>
-    <row r="25" spans="1:109">
+    <row r="25" spans="1:112">
       <c r="A25">
         <v>23</v>
       </c>
@@ -33167,8 +33651,16 @@
       <c r="DE25">
         <v>255</v>
       </c>
+      <c r="DG25">
+        <f t="shared" si="0"/>
+        <v>3573.6</v>
+      </c>
+      <c r="DH25">
+        <f>('Linear no coev data'!C25+'Linear no coev data'!Y25+'Linear no coev data'!AU25+'Linear no coev data'!BQ25+'Linear no coev data'!CM25)/5</f>
+        <v>3038.6</v>
+      </c>
     </row>
-    <row r="26" spans="1:109">
+    <row r="26" spans="1:112">
       <c r="A26">
         <v>24</v>
       </c>
@@ -33484,8 +33976,16 @@
       <c r="DE26">
         <v>243</v>
       </c>
+      <c r="DG26">
+        <f t="shared" si="0"/>
+        <v>3902.4</v>
+      </c>
+      <c r="DH26">
+        <f>('Linear no coev data'!C26+'Linear no coev data'!Y26+'Linear no coev data'!AU26+'Linear no coev data'!BQ26+'Linear no coev data'!CM26)/5</f>
+        <v>3125.2</v>
+      </c>
     </row>
-    <row r="27" spans="1:109">
+    <row r="27" spans="1:112">
       <c r="A27">
         <v>25</v>
       </c>
@@ -33801,8 +34301,16 @@
       <c r="DE27">
         <v>225</v>
       </c>
+      <c r="DG27">
+        <f t="shared" si="0"/>
+        <v>3945</v>
+      </c>
+      <c r="DH27">
+        <f>('Linear no coev data'!C27+'Linear no coev data'!Y27+'Linear no coev data'!AU27+'Linear no coev data'!BQ27+'Linear no coev data'!CM27)/5</f>
+        <v>2730.4</v>
+      </c>
     </row>
-    <row r="28" spans="1:109">
+    <row r="28" spans="1:112">
       <c r="A28">
         <v>26</v>
       </c>
@@ -34118,8 +34626,16 @@
       <c r="DE28">
         <v>217</v>
       </c>
+      <c r="DG28">
+        <f t="shared" si="0"/>
+        <v>3793.8</v>
+      </c>
+      <c r="DH28">
+        <f>('Linear no coev data'!C28+'Linear no coev data'!Y28+'Linear no coev data'!AU28+'Linear no coev data'!BQ28+'Linear no coev data'!CM28)/5</f>
+        <v>2938.8</v>
+      </c>
     </row>
-    <row r="29" spans="1:109">
+    <row r="29" spans="1:112">
       <c r="A29">
         <v>27</v>
       </c>
@@ -34435,8 +34951,16 @@
       <c r="DE29">
         <v>224</v>
       </c>
+      <c r="DG29">
+        <f t="shared" si="0"/>
+        <v>4131.2</v>
+      </c>
+      <c r="DH29">
+        <f>('Linear no coev data'!C29+'Linear no coev data'!Y29+'Linear no coev data'!AU29+'Linear no coev data'!BQ29+'Linear no coev data'!CM29)/5</f>
+        <v>3031.2</v>
+      </c>
     </row>
-    <row r="30" spans="1:109">
+    <row r="30" spans="1:112">
       <c r="A30">
         <v>28</v>
       </c>
@@ -34752,8 +35276,16 @@
       <c r="DE30">
         <v>211</v>
       </c>
+      <c r="DG30">
+        <f t="shared" si="0"/>
+        <v>3918.6</v>
+      </c>
+      <c r="DH30">
+        <f>('Linear no coev data'!C30+'Linear no coev data'!Y30+'Linear no coev data'!AU30+'Linear no coev data'!BQ30+'Linear no coev data'!CM30)/5</f>
+        <v>3312.6</v>
+      </c>
     </row>
-    <row r="31" spans="1:109">
+    <row r="31" spans="1:112">
       <c r="A31">
         <v>29</v>
       </c>
@@ -35069,9 +35601,23 @@
       <c r="DE31">
         <v>206</v>
       </c>
+      <c r="DG31">
+        <f t="shared" si="0"/>
+        <v>4173.8</v>
+      </c>
+      <c r="DH31">
+        <f>('Linear no coev data'!C31+'Linear no coev data'!Y31+'Linear no coev data'!AU31+'Linear no coev data'!BQ31+'Linear no coev data'!CM31)/5</f>
+        <v>3476.6</v>
+      </c>
     </row>
   </sheetData>
+  <dataConsolidate function="average">
+    <dataRefs count="1">
+      <dataRef name="$C2,$Y2,$AU2,$BQ2,$CM2"/>
+    </dataRefs>
+  </dataConsolidate>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -51098,5 +51644,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>